--- a/trend/monthly/trend_2019_monthly.xlsx
+++ b/trend/monthly/trend_2019_monthly.xlsx
@@ -14,20 +14,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
-  <si>
-    <t>名称</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>负责人</t>
   </si>
   <si>
-    <t>定义</t>
+    <t>去年实绩</t>
   </si>
   <si>
     <t>目标值</t>
   </si>
   <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
+    <t>8月</t>
+  </si>
+  <si>
+    <t>9月</t>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>12月</t>
+  </si>
+  <si>
     <t>1580高牌号硅钢总体一次投料合格率</t>
   </si>
   <si>
@@ -41,18 +74,6 @@
   </si>
   <si>
     <t>王宇阳</t>
-  </si>
-  <si>
-    <t>高牌号硅钢硅钢合格卷重/原钢种板坯重量</t>
-  </si>
-  <si>
-    <t>高牌号硅钢板形合格卷数重量/原钢种板坯重量</t>
-  </si>
-  <si>
-    <t>高牌号硅钢板面合格卷数重量/原钢种板坯重量</t>
-  </si>
-  <si>
-    <t>高牌号硅钢成分合格卷数重量/原钢种板坯重量</t>
   </si>
 </sst>
 </file>
@@ -410,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,140 +450,117 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
-        <v>201901</v>
-      </c>
-      <c r="G1" s="1">
-        <v>201902</v>
-      </c>
-      <c r="H1" s="1">
-        <v>201903</v>
-      </c>
-      <c r="I1" s="1">
-        <v>201904</v>
-      </c>
-      <c r="J1" s="1">
-        <v>201905</v>
-      </c>
-      <c r="K1" s="1">
-        <v>201906</v>
-      </c>
-      <c r="L1" s="1">
-        <v>201907</v>
-      </c>
-      <c r="M1" s="1">
-        <v>201908</v>
-      </c>
-      <c r="N1" s="1">
-        <v>201909</v>
-      </c>
-      <c r="O1" s="1">
-        <v>201910</v>
-      </c>
-      <c r="P1" s="1">
-        <v>201911</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>201912</v>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>62.85</v>
+      </c>
+      <c r="D2">
+        <v>68.88</v>
       </c>
       <c r="E2">
-        <v>68.88</v>
+        <v>45.63</v>
+      </c>
+      <c r="F2">
+        <v>58.61</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>92.76000000000001</v>
+      </c>
+      <c r="D3">
+        <v>94.77</v>
       </c>
       <c r="E3">
-        <v>94.77</v>
+        <v>84.78</v>
+      </c>
+      <c r="F3">
+        <v>86.41</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>88.20999999999999</v>
+      </c>
+      <c r="D4">
+        <v>91.65000000000001</v>
       </c>
       <c r="E4">
-        <v>91.65000000000001</v>
+        <v>84.93000000000001</v>
+      </c>
+      <c r="F4">
+        <v>84.06999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>71.12</v>
+      </c>
+      <c r="D5">
+        <v>77.84999999999999</v>
       </c>
       <c r="E5">
-        <v>77.84999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>58.61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>86.41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>84.06999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9">
+        <v>58.91</v>
+      </c>
+      <c r="F5">
         <v>70.34</v>
       </c>
     </row>

--- a/trend/monthly/trend_2019_monthly.xlsx
+++ b/trend/monthly/trend_2019_monthly.xlsx
@@ -503,6 +503,12 @@
       <c r="F2">
         <v>58.61</v>
       </c>
+      <c r="G2">
+        <v>50.06</v>
+      </c>
+      <c r="H2">
+        <v>47.66</v>
+      </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
@@ -521,7 +527,13 @@
         <v>84.78</v>
       </c>
       <c r="F3">
-        <v>86.41</v>
+        <v>81.01000000000001</v>
+      </c>
+      <c r="G3">
+        <v>80.43000000000001</v>
+      </c>
+      <c r="H3">
+        <v>68.48</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -543,6 +555,12 @@
       <c r="F4">
         <v>84.06999999999999</v>
       </c>
+      <c r="G4">
+        <v>84.06</v>
+      </c>
+      <c r="H4">
+        <v>88.38</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
@@ -562,6 +580,12 @@
       </c>
       <c r="F5">
         <v>70.34</v>
+      </c>
+      <c r="G5">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="H5">
+        <v>73.01000000000001</v>
       </c>
     </row>
   </sheetData>
